--- a/test_datas/login_suite/login_test.xlsx
+++ b/test_datas/login_suite/login_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李芳芳\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\test_datas\login_suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F152359-DDA8-4857-BCFF-7EC2372648C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E39425-4F34-49A8-A991-6FD27F8695AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2364" windowWidth="21960" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21960" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>username=admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +489,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -582,7 +586,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
